--- a/biology/Botanique/Ekimia/Ekimia.xlsx
+++ b/biology/Botanique/Ekimia/Ekimia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ekimia est un genre de plantes à fleurs de la famille des Apiaceae. Ses espèces sont endémiques de la péninsule anatolienne. 
-Plus précisément, Ekimia bornmuelleri, l'espèce type du genre, est présente sur une majeure partie de la Turquie et des pays limitrophes comme le Liban et la Syrie ; Ekimia petrophila habite les montagnes du centre-sud de l'Anatolie, tandis qu'Ekimia glauca a été décrite à partir des Monts Nur au Sud-Est. Quant à Ekimia ozcan-secmenii, elle est décrite depuis le Sud-Ouest. Ekimia glauca est une espèce qui appartenait auparavant au genre Laserpitium[2],[3].
+Plus précisément, Ekimia bornmuelleri, l'espèce type du genre, est présente sur une majeure partie de la Turquie et des pays limitrophes comme le Liban et la Syrie ; Ekimia petrophila habite les montagnes du centre-sud de l'Anatolie, tandis qu'Ekimia glauca a été décrite à partir des Monts Nur au Sud-Est. Quant à Ekimia ozcan-secmenii, elle est décrite depuis le Sud-Ouest. Ekimia glauca est une espèce qui appartenait auparavant au genre Laserpitium,.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Ensemble des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ekimia bornmuelleri (Hub.-Mor. &amp; Reese) H. Duman &amp; M. F. Watson (1999)[4],[5]
-Ekimia glauca (Post) Banasiak, Baczyñski &amp; Spalik (2016)[4],[5]
-Ekimia ozcan-secmenii Senol &amp; Eroglu (2018)[4]
-Ekimia petrophila (Boiss. &amp; Heldr.) Baczyñski, Banasiak &amp; Spalik (2016)[4],[5]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ekimia bornmuelleri (Hub.-Mor. &amp; Reese) H. Duman &amp; M. F. Watson (1999),
+Ekimia glauca (Post) Banasiak, Baczyñski &amp; Spalik (2016),
+Ekimia ozcan-secmenii Senol &amp; Eroglu (2018)
+Ekimia petrophila (Boiss. &amp; Heldr.) Baczyñski, Banasiak &amp; Spalik (2016),</t>
         </is>
       </c>
     </row>
